--- a/Requerimientos/Gestión del Proyecto fss.xlsx
+++ b/Requerimientos/Gestión del Proyecto fss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3eecbba1e1155198/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nayibe Saenz\Documents\GitHub\ProyectoFSS\Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AECF96A-D350-4B9B-8F9B-5330F4751176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA63C07D-A7C0-4C81-8E03-445C2955990C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificación" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Presupuesto" sheetId="4" r:id="rId4"/>
     <sheet name="Informes" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="79" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>ACTUAL</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Mapa Procesos</t>
-  </si>
-  <si>
-    <t>GANTT del poyecto</t>
   </si>
   <si>
     <t>FASE  DE ANALISIS</t>
@@ -308,6 +305,12 @@
   </si>
   <si>
     <t>gimnasio Energy Training</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>GANTT del proyecto</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1100,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -1513,6 +1516,41 @@
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1523,12 +1561,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1551,31 +1583,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1607,14 +1619,35 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="3" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1656,44 +1689,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1707,37 +1714,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="8" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -1916,6 +1893,9 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="m/d/yyyy">
                   <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="m/d/yyyy">
+                  <c:v>43996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,7 +2465,7 @@
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="m/d/yyyy">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
@@ -2807,10 +2787,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.61599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39999999999999997</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -8096,7 +8076,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35008751-1AFA-450B-91CC-855446EAD7FF}" name="Tabla dinámica6" cacheId="79" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35008751-1AFA-450B-91CC-855446EAD7FF}" name="Tabla dinámica6" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A38:E44" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -8163,10 +8143,10 @@
     <dataField name="Suma de Cesar Esteban Garzon Contreras" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="11">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8544,40 +8524,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AN469"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" style="3" customWidth="1"/>
     <col min="4" max="4" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.69921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.69921875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.296875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11" style="3"/>
-    <col min="14" max="14" width="14.75" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.69921875" style="3" customWidth="1"/>
     <col min="15" max="16" width="11" style="3"/>
-    <col min="17" max="17" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.69921875" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="131" t="s">
+    <row r="1" spans="2:40" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -8609,15 +8589,15 @@
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+    <row r="2" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -8649,12 +8629,12 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
     </row>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -8693,18 +8673,18 @@
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="185">
+      <c r="D4" s="152">
         <v>43748</v>
       </c>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="12"/>
@@ -8737,14 +8717,14 @@
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C5" s="13"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -8777,18 +8757,18 @@
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
     </row>
-    <row r="6" spans="2:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="137"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="139" t="s">
+      <c r="F6" s="146"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="140"/>
+      <c r="I6" s="149"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -8813,7 +8793,7 @@
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
     </row>
-    <row r="7" spans="2:40" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:40" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="15" t="s">
         <v>7</v>
       </c>
@@ -8857,7 +8837,7 @@
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
     </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B8" s="96"/>
       <c r="C8" s="20" t="s">
         <v>8</v>
@@ -8892,21 +8872,21 @@
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
     </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B9" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="132" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="133"/>
+        <v>60</v>
+      </c>
+      <c r="C9" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="144"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="37">
         <f>J12/J13</f>
-        <v>1</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -8932,12 +8912,12 @@
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B10" s="97">
         <v>1</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="135"/>
       <c r="E10" s="129">
@@ -8951,7 +8931,7 @@
         <v>26</v>
       </c>
       <c r="H10" s="128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="26">
         <v>1</v>
@@ -8980,7 +8960,7 @@
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B11" s="97">
         <v>2</v>
       </c>
@@ -9028,14 +9008,14 @@
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B12" s="97">
         <v>3</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="142"/>
+      <c r="D12" s="151"/>
       <c r="E12" s="78">
         <v>43785</v>
       </c>
@@ -9053,8 +9033,8 @@
         <v>1</v>
       </c>
       <c r="J12" s="35">
-        <f>SUM(I11:I14)</f>
-        <v>4</v>
+        <f>SUM(I10:I14)</f>
+        <v>3.08</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -9080,7 +9060,7 @@
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
     </row>
-    <row r="13" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="97">
         <v>4</v>
       </c>
@@ -9098,11 +9078,11 @@
         <v>25</v>
       </c>
       <c r="I13" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
-        <f>COUNT(I11:I14)</f>
-        <v>4</v>
+        <f>COUNT(I10:I14)</f>
+        <v>5</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -9128,14 +9108,14 @@
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B14" s="97">
         <v>5</v>
       </c>
-      <c r="C14" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="142"/>
+      <c r="C14" s="150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="151"/>
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
       <c r="G14" s="79">
@@ -9143,10 +9123,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I14" s="26">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -9172,19 +9152,19 @@
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
     </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B15" s="97"/>
-      <c r="C15" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="133"/>
+      <c r="C15" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="144"/>
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
       <c r="G15" s="79"/>
       <c r="H15" s="24"/>
       <c r="I15" s="36">
         <f>J16/J17</f>
-        <v>0.39999999999999997</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -9210,12 +9190,12 @@
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
     </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B16" s="97">
         <v>6</v>
       </c>
       <c r="C16" s="134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="135"/>
       <c r="E16" s="78">
@@ -9229,14 +9209,14 @@
         <v>5</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J16" s="35">
         <f>SUM(I16:I22)</f>
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -9262,12 +9242,12 @@
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
     </row>
-    <row r="17" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="97">
         <v>7</v>
       </c>
       <c r="C17" s="134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="135"/>
       <c r="E17" s="78"/>
@@ -9277,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <f>COUNT(I16:I22)</f>
@@ -9310,12 +9290,12 @@
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
     </row>
-    <row r="18" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="97">
         <v>8</v>
       </c>
       <c r="C18" s="134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="135"/>
       <c r="E18" s="78"/>
@@ -9325,10 +9305,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -9354,12 +9334,12 @@
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
     </row>
-    <row r="19" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="97">
         <v>9</v>
       </c>
       <c r="C19" s="134" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="135"/>
       <c r="E19" s="78"/>
@@ -9369,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="27">
         <v>0</v>
@@ -9398,14 +9378,14 @@
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B20" s="97">
         <v>10</v>
       </c>
-      <c r="C20" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="146"/>
+      <c r="C20" s="136" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="137"/>
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
       <c r="G20" s="79">
@@ -9413,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="27">
         <v>0</v>
@@ -9442,22 +9422,23 @@
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
     </row>
-    <row r="21" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="97">
         <v>11</v>
       </c>
-      <c r="C21" s="145" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="78"/>
+      <c r="C21" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="137"/>
+      <c r="E21" s="78">
+        <v>43996</v>
+      </c>
       <c r="F21" s="78"/>
-      <c r="G21" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G21" s="187" t="s">
+        <v>82</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="27">
         <v>0</v>
@@ -9486,12 +9467,12 @@
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
     </row>
-    <row r="22" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="97">
         <v>12</v>
       </c>
       <c r="C22" s="134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="135"/>
       <c r="E22" s="78"/>
@@ -9501,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="27">
         <v>0</v>
@@ -9530,12 +9511,12 @@
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B23" s="97"/>
-      <c r="C23" s="149" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="150"/>
+      <c r="C23" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="141"/>
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
       <c r="G23" s="79"/>
@@ -9568,12 +9549,12 @@
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
     </row>
-    <row r="24" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="97">
         <v>13</v>
       </c>
       <c r="C24" s="134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="135"/>
       <c r="E24" s="78"/>
@@ -9583,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="27">
         <v>0</v>
@@ -9616,12 +9597,12 @@
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
     </row>
-    <row r="25" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="97">
         <v>14</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="135"/>
       <c r="E25" s="78"/>
@@ -9631,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" s="27">
         <v>0</v>
@@ -9664,12 +9645,12 @@
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B26" s="97"/>
-      <c r="C26" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="133"/>
+      <c r="C26" s="143" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="144"/>
       <c r="E26" s="78"/>
       <c r="F26" s="78"/>
       <c r="G26" s="79"/>
@@ -9702,12 +9683,12 @@
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
     </row>
-    <row r="27" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="97">
         <v>15</v>
       </c>
       <c r="C27" s="134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="135"/>
       <c r="E27" s="78"/>
@@ -9717,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" s="27">
         <v>0</v>
@@ -9750,12 +9731,12 @@
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
     </row>
-    <row r="28" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="97">
         <v>16</v>
       </c>
       <c r="C28" s="134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="135"/>
       <c r="E28" s="78"/>
@@ -9765,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="27">
         <v>0</v>
@@ -9798,10 +9779,10 @@
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
     </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B29" s="98"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="79"/>
@@ -9831,12 +9812,12 @@
       <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
     </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B30" s="99"/>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="144"/>
+      <c r="D30" s="133"/>
       <c r="E30" s="100">
         <f>E11</f>
         <v>43775</v>
@@ -9875,7 +9856,7 @@
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
     </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
@@ -9915,7 +9896,7 @@
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
     </row>
-    <row r="32" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -9932,7 +9913,7 @@
       <c r="P32" s="33"/>
       <c r="Q32" s="34"/>
     </row>
-    <row r="33" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -9972,7 +9953,7 @@
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
     </row>
-    <row r="34" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -10012,7 +9993,7 @@
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
     </row>
-    <row r="35" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -10052,7 +10033,7 @@
       <c r="AM35" s="2"/>
       <c r="AN35" s="2"/>
     </row>
-    <row r="36" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -10092,7 +10073,7 @@
       <c r="AM36" s="2"/>
       <c r="AN36" s="2"/>
     </row>
-    <row r="37" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -10132,7 +10113,7 @@
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
     </row>
-    <row r="38" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -10172,7 +10153,7 @@
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
     </row>
-    <row r="39" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -10212,7 +10193,7 @@
       <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
     </row>
-    <row r="40" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -10252,7 +10233,7 @@
       <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
     </row>
-    <row r="41" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -10292,7 +10273,7 @@
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
     </row>
-    <row r="42" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -10332,7 +10313,7 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
     </row>
-    <row r="43" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -10372,7 +10353,7 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
     </row>
-    <row r="44" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -10412,7 +10393,7 @@
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
     </row>
-    <row r="45" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -10452,7 +10433,7 @@
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
     </row>
-    <row r="46" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -10492,7 +10473,7 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
     </row>
-    <row r="47" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -10532,7 +10513,7 @@
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
     </row>
-    <row r="48" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -10572,7 +10553,7 @@
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
     </row>
-    <row r="49" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -10612,7 +10593,7 @@
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
     </row>
-    <row r="50" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -10652,7 +10633,7 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
     </row>
-    <row r="51" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -10692,7 +10673,7 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
     </row>
-    <row r="52" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -10732,7 +10713,7 @@
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
     </row>
-    <row r="53" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -10772,7 +10753,7 @@
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
     </row>
-    <row r="54" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -10812,7 +10793,7 @@
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
     </row>
-    <row r="55" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -10852,7 +10833,7 @@
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
     </row>
-    <row r="56" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -10892,7 +10873,7 @@
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
     </row>
-    <row r="57" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -10932,7 +10913,7 @@
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
     </row>
-    <row r="58" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -10972,7 +10953,7 @@
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
     </row>
-    <row r="59" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -11012,7 +10993,7 @@
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
     </row>
-    <row r="60" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -11052,7 +11033,7 @@
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
     </row>
-    <row r="61" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -11092,7 +11073,7 @@
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
     </row>
-    <row r="62" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -11132,7 +11113,7 @@
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
     </row>
-    <row r="63" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -11172,7 +11153,7 @@
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
     </row>
-    <row r="64" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -11212,7 +11193,7 @@
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
     </row>
-    <row r="65" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -11252,7 +11233,7 @@
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
     </row>
-    <row r="66" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -11292,7 +11273,7 @@
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
     </row>
-    <row r="67" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -11332,7 +11313,7 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
     </row>
-    <row r="68" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -11372,7 +11353,7 @@
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
     </row>
-    <row r="69" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -11412,7 +11393,7 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
     </row>
-    <row r="70" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -11452,7 +11433,7 @@
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
     </row>
-    <row r="71" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -11492,7 +11473,7 @@
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
     </row>
-    <row r="72" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -11532,7 +11513,7 @@
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
     </row>
-    <row r="73" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -11572,7 +11553,7 @@
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
     </row>
-    <row r="74" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -11612,7 +11593,7 @@
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
     </row>
-    <row r="75" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -11652,7 +11633,7 @@
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
     </row>
-    <row r="76" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -11692,7 +11673,7 @@
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
     </row>
-    <row r="77" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -11732,7 +11713,7 @@
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
     </row>
-    <row r="78" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -11772,7 +11753,7 @@
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
     </row>
-    <row r="79" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -11812,7 +11793,7 @@
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
     </row>
-    <row r="80" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -11852,7 +11833,7 @@
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
     </row>
-    <row r="81" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -11892,7 +11873,7 @@
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
     </row>
-    <row r="82" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -11932,7 +11913,7 @@
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
     </row>
-    <row r="83" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -11972,7 +11953,7 @@
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
     </row>
-    <row r="84" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -12012,7 +11993,7 @@
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
     </row>
-    <row r="85" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -12052,7 +12033,7 @@
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
     </row>
-    <row r="86" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -12092,7 +12073,7 @@
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
     </row>
-    <row r="87" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -12132,7 +12113,7 @@
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
     </row>
-    <row r="88" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -12172,7 +12153,7 @@
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
     </row>
-    <row r="89" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -12212,7 +12193,7 @@
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
     </row>
-    <row r="90" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -12252,7 +12233,7 @@
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
     </row>
-    <row r="91" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -12292,7 +12273,7 @@
       <c r="AM91" s="2"/>
       <c r="AN91" s="2"/>
     </row>
-    <row r="92" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -12332,7 +12313,7 @@
       <c r="AM92" s="2"/>
       <c r="AN92" s="2"/>
     </row>
-    <row r="93" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -12372,7 +12353,7 @@
       <c r="AM93" s="2"/>
       <c r="AN93" s="2"/>
     </row>
-    <row r="94" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -12412,7 +12393,7 @@
       <c r="AM94" s="2"/>
       <c r="AN94" s="2"/>
     </row>
-    <row r="95" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -12452,7 +12433,7 @@
       <c r="AM95" s="2"/>
       <c r="AN95" s="2"/>
     </row>
-    <row r="96" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -12492,7 +12473,7 @@
       <c r="AM96" s="2"/>
       <c r="AN96" s="2"/>
     </row>
-    <row r="97" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -12532,7 +12513,7 @@
       <c r="AM97" s="2"/>
       <c r="AN97" s="2"/>
     </row>
-    <row r="98" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -12572,7 +12553,7 @@
       <c r="AM98" s="2"/>
       <c r="AN98" s="2"/>
     </row>
-    <row r="99" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -12612,7 +12593,7 @@
       <c r="AM99" s="2"/>
       <c r="AN99" s="2"/>
     </row>
-    <row r="100" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -12652,7 +12633,7 @@
       <c r="AM100" s="2"/>
       <c r="AN100" s="2"/>
     </row>
-    <row r="101" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -12692,7 +12673,7 @@
       <c r="AM101" s="2"/>
       <c r="AN101" s="2"/>
     </row>
-    <row r="102" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -12732,7 +12713,7 @@
       <c r="AM102" s="2"/>
       <c r="AN102" s="2"/>
     </row>
-    <row r="103" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -12772,7 +12753,7 @@
       <c r="AM103" s="2"/>
       <c r="AN103" s="2"/>
     </row>
-    <row r="104" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -12812,7 +12793,7 @@
       <c r="AM104" s="2"/>
       <c r="AN104" s="2"/>
     </row>
-    <row r="105" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -12852,7 +12833,7 @@
       <c r="AM105" s="2"/>
       <c r="AN105" s="2"/>
     </row>
-    <row r="106" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -12892,7 +12873,7 @@
       <c r="AM106" s="2"/>
       <c r="AN106" s="2"/>
     </row>
-    <row r="107" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -12932,7 +12913,7 @@
       <c r="AM107" s="2"/>
       <c r="AN107" s="2"/>
     </row>
-    <row r="108" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -12972,7 +12953,7 @@
       <c r="AM108" s="2"/>
       <c r="AN108" s="2"/>
     </row>
-    <row r="109" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -13012,7 +12993,7 @@
       <c r="AM109" s="2"/>
       <c r="AN109" s="2"/>
     </row>
-    <row r="110" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -13052,7 +13033,7 @@
       <c r="AM110" s="2"/>
       <c r="AN110" s="2"/>
     </row>
-    <row r="111" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -13092,7 +13073,7 @@
       <c r="AM111" s="2"/>
       <c r="AN111" s="2"/>
     </row>
-    <row r="112" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -13132,7 +13113,7 @@
       <c r="AM112" s="2"/>
       <c r="AN112" s="2"/>
     </row>
-    <row r="113" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -13172,7 +13153,7 @@
       <c r="AM113" s="2"/>
       <c r="AN113" s="2"/>
     </row>
-    <row r="114" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -13212,7 +13193,7 @@
       <c r="AM114" s="2"/>
       <c r="AN114" s="2"/>
     </row>
-    <row r="115" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -13252,7 +13233,7 @@
       <c r="AM115" s="2"/>
       <c r="AN115" s="2"/>
     </row>
-    <row r="116" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -13292,7 +13273,7 @@
       <c r="AM116" s="2"/>
       <c r="AN116" s="2"/>
     </row>
-    <row r="117" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -13332,7 +13313,7 @@
       <c r="AM117" s="2"/>
       <c r="AN117" s="2"/>
     </row>
-    <row r="118" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -13372,7 +13353,7 @@
       <c r="AM118" s="2"/>
       <c r="AN118" s="2"/>
     </row>
-    <row r="119" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -13412,7 +13393,7 @@
       <c r="AM119" s="2"/>
       <c r="AN119" s="2"/>
     </row>
-    <row r="120" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -13452,7 +13433,7 @@
       <c r="AM120" s="2"/>
       <c r="AN120" s="2"/>
     </row>
-    <row r="121" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -13492,7 +13473,7 @@
       <c r="AM121" s="2"/>
       <c r="AN121" s="2"/>
     </row>
-    <row r="122" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -13532,7 +13513,7 @@
       <c r="AM122" s="2"/>
       <c r="AN122" s="2"/>
     </row>
-    <row r="123" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -13572,7 +13553,7 @@
       <c r="AM123" s="2"/>
       <c r="AN123" s="2"/>
     </row>
-    <row r="124" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -13612,7 +13593,7 @@
       <c r="AM124" s="2"/>
       <c r="AN124" s="2"/>
     </row>
-    <row r="125" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -13652,7 +13633,7 @@
       <c r="AM125" s="2"/>
       <c r="AN125" s="2"/>
     </row>
-    <row r="126" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -13692,7 +13673,7 @@
       <c r="AM126" s="2"/>
       <c r="AN126" s="2"/>
     </row>
-    <row r="127" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -13712,7 +13693,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="3:40" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -13732,7 +13713,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -13752,7 +13733,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -13772,7 +13753,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -13792,7 +13773,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -13812,7 +13793,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -13832,7 +13813,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -13852,7 +13833,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -13872,7 +13853,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -13892,7 +13873,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -13912,7 +13893,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -13932,7 +13913,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -13952,7 +13933,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -13972,7 +13953,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -13992,7 +13973,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -14012,7 +13993,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -14032,7 +14013,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -14052,7 +14033,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -14072,7 +14053,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -14092,7 +14073,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -14112,7 +14093,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -14132,7 +14113,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -14152,7 +14133,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -14172,7 +14153,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -14192,7 +14173,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -14212,7 +14193,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -14232,7 +14213,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -14252,7 +14233,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -14272,7 +14253,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -14292,7 +14273,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -14312,7 +14293,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -14332,7 +14313,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -14352,7 +14333,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -14372,7 +14353,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -14392,7 +14373,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -14412,7 +14393,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -14432,7 +14413,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -14452,7 +14433,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -14472,7 +14453,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -14492,7 +14473,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -14512,7 +14493,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -14532,7 +14513,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -14552,7 +14533,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -14572,7 +14553,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -14592,7 +14573,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -14612,7 +14593,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -14632,7 +14613,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -14652,7 +14633,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -14672,7 +14653,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -14692,7 +14673,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -14712,7 +14693,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -14732,7 +14713,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -14752,7 +14733,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -14772,7 +14753,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -14792,7 +14773,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -14812,7 +14793,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -14832,7 +14813,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -14852,7 +14833,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -14872,7 +14853,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -14892,7 +14873,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -14912,7 +14893,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -14932,7 +14913,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -14952,7 +14933,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -14972,7 +14953,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -14992,7 +14973,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -15012,7 +14993,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -15032,7 +15013,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -15052,7 +15033,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -15072,7 +15053,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -15092,7 +15073,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -15112,7 +15093,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -15132,7 +15113,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -15152,7 +15133,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -15172,7 +15153,7 @@
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
     </row>
-    <row r="201" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -15192,7 +15173,7 @@
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
     </row>
-    <row r="202" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -15212,7 +15193,7 @@
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
     </row>
-    <row r="203" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -15232,7 +15213,7 @@
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
     </row>
-    <row r="204" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -15252,7 +15233,7 @@
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
     </row>
-    <row r="205" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -15272,7 +15253,7 @@
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
     </row>
-    <row r="206" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -15292,7 +15273,7 @@
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
     </row>
-    <row r="207" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -15312,7 +15293,7 @@
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
     </row>
-    <row r="208" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -15332,7 +15313,7 @@
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
     </row>
-    <row r="209" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -15352,7 +15333,7 @@
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
     </row>
-    <row r="210" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -15372,7 +15353,7 @@
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
     </row>
-    <row r="211" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -15392,7 +15373,7 @@
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
     </row>
-    <row r="212" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -15412,7 +15393,7 @@
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
     </row>
-    <row r="213" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -15432,7 +15413,7 @@
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
     </row>
-    <row r="214" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -15452,7 +15433,7 @@
       <c r="S214" s="2"/>
       <c r="T214" s="2"/>
     </row>
-    <row r="215" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -15472,7 +15453,7 @@
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
     </row>
-    <row r="216" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -15492,7 +15473,7 @@
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
     </row>
-    <row r="217" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -15512,7 +15493,7 @@
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
     </row>
-    <row r="218" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -15532,7 +15513,7 @@
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
     </row>
-    <row r="219" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -15552,7 +15533,7 @@
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
     </row>
-    <row r="220" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -15572,7 +15553,7 @@
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
     </row>
-    <row r="221" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -15592,7 +15573,7 @@
       <c r="S221" s="2"/>
       <c r="T221" s="2"/>
     </row>
-    <row r="222" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -15612,7 +15593,7 @@
       <c r="S222" s="2"/>
       <c r="T222" s="2"/>
     </row>
-    <row r="223" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -15632,7 +15613,7 @@
       <c r="S223" s="2"/>
       <c r="T223" s="2"/>
     </row>
-    <row r="224" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -15652,7 +15633,7 @@
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
     </row>
-    <row r="225" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -15672,7 +15653,7 @@
       <c r="S225" s="2"/>
       <c r="T225" s="2"/>
     </row>
-    <row r="226" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -15692,7 +15673,7 @@
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
     </row>
-    <row r="227" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -15712,7 +15693,7 @@
       <c r="S227" s="2"/>
       <c r="T227" s="2"/>
     </row>
-    <row r="228" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -15732,7 +15713,7 @@
       <c r="S228" s="2"/>
       <c r="T228" s="2"/>
     </row>
-    <row r="229" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -15752,7 +15733,7 @@
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
     </row>
-    <row r="230" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -15772,7 +15753,7 @@
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
     </row>
-    <row r="231" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -15792,7 +15773,7 @@
       <c r="S231" s="2"/>
       <c r="T231" s="2"/>
     </row>
-    <row r="232" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -15812,7 +15793,7 @@
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
     </row>
-    <row r="233" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -15832,7 +15813,7 @@
       <c r="S233" s="2"/>
       <c r="T233" s="2"/>
     </row>
-    <row r="234" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -15852,7 +15833,7 @@
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
     </row>
-    <row r="235" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -15872,7 +15853,7 @@
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
     </row>
-    <row r="236" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -15892,7 +15873,7 @@
       <c r="S236" s="2"/>
       <c r="T236" s="2"/>
     </row>
-    <row r="237" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -15912,7 +15893,7 @@
       <c r="S237" s="2"/>
       <c r="T237" s="2"/>
     </row>
-    <row r="238" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -15932,7 +15913,7 @@
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
     </row>
-    <row r="239" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -15952,7 +15933,7 @@
       <c r="S239" s="2"/>
       <c r="T239" s="2"/>
     </row>
-    <row r="240" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -15972,7 +15953,7 @@
       <c r="S240" s="2"/>
       <c r="T240" s="2"/>
     </row>
-    <row r="241" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -15992,7 +15973,7 @@
       <c r="S241" s="2"/>
       <c r="T241" s="2"/>
     </row>
-    <row r="242" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -16012,7 +15993,7 @@
       <c r="S242" s="2"/>
       <c r="T242" s="2"/>
     </row>
-    <row r="243" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -16032,7 +16013,7 @@
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
     </row>
-    <row r="244" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -16052,7 +16033,7 @@
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
     </row>
-    <row r="245" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -16072,7 +16053,7 @@
       <c r="S245" s="2"/>
       <c r="T245" s="2"/>
     </row>
-    <row r="246" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -16092,7 +16073,7 @@
       <c r="S246" s="2"/>
       <c r="T246" s="2"/>
     </row>
-    <row r="247" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -16112,7 +16093,7 @@
       <c r="S247" s="2"/>
       <c r="T247" s="2"/>
     </row>
-    <row r="248" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -16132,7 +16113,7 @@
       <c r="S248" s="2"/>
       <c r="T248" s="2"/>
     </row>
-    <row r="249" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -16152,7 +16133,7 @@
       <c r="S249" s="2"/>
       <c r="T249" s="2"/>
     </row>
-    <row r="250" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -16172,7 +16153,7 @@
       <c r="S250" s="2"/>
       <c r="T250" s="2"/>
     </row>
-    <row r="251" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -16192,7 +16173,7 @@
       <c r="S251" s="2"/>
       <c r="T251" s="2"/>
     </row>
-    <row r="252" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -16212,7 +16193,7 @@
       <c r="S252" s="2"/>
       <c r="T252" s="2"/>
     </row>
-    <row r="253" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -16232,7 +16213,7 @@
       <c r="S253" s="2"/>
       <c r="T253" s="2"/>
     </row>
-    <row r="254" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -16252,7 +16233,7 @@
       <c r="S254" s="2"/>
       <c r="T254" s="2"/>
     </row>
-    <row r="255" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -16272,7 +16253,7 @@
       <c r="S255" s="2"/>
       <c r="T255" s="2"/>
     </row>
-    <row r="256" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -16292,7 +16273,7 @@
       <c r="S256" s="2"/>
       <c r="T256" s="2"/>
     </row>
-    <row r="257" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -16312,7 +16293,7 @@
       <c r="S257" s="2"/>
       <c r="T257" s="2"/>
     </row>
-    <row r="258" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -16332,7 +16313,7 @@
       <c r="S258" s="2"/>
       <c r="T258" s="2"/>
     </row>
-    <row r="259" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -16352,7 +16333,7 @@
       <c r="S259" s="2"/>
       <c r="T259" s="2"/>
     </row>
-    <row r="260" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -16372,7 +16353,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -16392,7 +16373,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -16412,7 +16393,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -16432,7 +16413,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -16452,7 +16433,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -16472,7 +16453,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -16492,7 +16473,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -16512,7 +16493,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -16532,7 +16513,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -16552,7 +16533,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -16572,7 +16553,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -16592,7 +16573,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -16612,7 +16593,7 @@
       <c r="S272" s="2"/>
       <c r="T272" s="2"/>
     </row>
-    <row r="273" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -16632,7 +16613,7 @@
       <c r="S273" s="2"/>
       <c r="T273" s="2"/>
     </row>
-    <row r="274" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -16652,7 +16633,7 @@
       <c r="S274" s="2"/>
       <c r="T274" s="2"/>
     </row>
-    <row r="275" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -16672,7 +16653,7 @@
       <c r="S275" s="2"/>
       <c r="T275" s="2"/>
     </row>
-    <row r="276" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -16692,7 +16673,7 @@
       <c r="S276" s="2"/>
       <c r="T276" s="2"/>
     </row>
-    <row r="277" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -16712,7 +16693,7 @@
       <c r="S277" s="2"/>
       <c r="T277" s="2"/>
     </row>
-    <row r="278" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -16732,7 +16713,7 @@
       <c r="S278" s="2"/>
       <c r="T278" s="2"/>
     </row>
-    <row r="279" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -16752,7 +16733,7 @@
       <c r="S279" s="2"/>
       <c r="T279" s="2"/>
     </row>
-    <row r="280" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -16772,7 +16753,7 @@
       <c r="S280" s="2"/>
       <c r="T280" s="2"/>
     </row>
-    <row r="281" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -16792,7 +16773,7 @@
       <c r="S281" s="2"/>
       <c r="T281" s="2"/>
     </row>
-    <row r="282" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -16812,7 +16793,7 @@
       <c r="S282" s="2"/>
       <c r="T282" s="2"/>
     </row>
-    <row r="283" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -16832,7 +16813,7 @@
       <c r="S283" s="2"/>
       <c r="T283" s="2"/>
     </row>
-    <row r="284" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -16852,7 +16833,7 @@
       <c r="S284" s="2"/>
       <c r="T284" s="2"/>
     </row>
-    <row r="285" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -16872,7 +16853,7 @@
       <c r="S285" s="2"/>
       <c r="T285" s="2"/>
     </row>
-    <row r="286" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -16892,7 +16873,7 @@
       <c r="S286" s="2"/>
       <c r="T286" s="2"/>
     </row>
-    <row r="287" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -16912,7 +16893,7 @@
       <c r="S287" s="2"/>
       <c r="T287" s="2"/>
     </row>
-    <row r="288" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -16932,7 +16913,7 @@
       <c r="S288" s="2"/>
       <c r="T288" s="2"/>
     </row>
-    <row r="289" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -16952,7 +16933,7 @@
       <c r="S289" s="2"/>
       <c r="T289" s="2"/>
     </row>
-    <row r="290" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -16972,7 +16953,7 @@
       <c r="S290" s="2"/>
       <c r="T290" s="2"/>
     </row>
-    <row r="291" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -16992,7 +16973,7 @@
       <c r="S291" s="2"/>
       <c r="T291" s="2"/>
     </row>
-    <row r="292" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -17012,7 +16993,7 @@
       <c r="S292" s="2"/>
       <c r="T292" s="2"/>
     </row>
-    <row r="293" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -17032,7 +17013,7 @@
       <c r="S293" s="2"/>
       <c r="T293" s="2"/>
     </row>
-    <row r="294" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -17052,7 +17033,7 @@
       <c r="S294" s="2"/>
       <c r="T294" s="2"/>
     </row>
-    <row r="295" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -17072,7 +17053,7 @@
       <c r="S295" s="2"/>
       <c r="T295" s="2"/>
     </row>
-    <row r="296" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -17092,7 +17073,7 @@
       <c r="S296" s="2"/>
       <c r="T296" s="2"/>
     </row>
-    <row r="297" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -17112,7 +17093,7 @@
       <c r="S297" s="2"/>
       <c r="T297" s="2"/>
     </row>
-    <row r="298" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -17132,7 +17113,7 @@
       <c r="S298" s="2"/>
       <c r="T298" s="2"/>
     </row>
-    <row r="299" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -17152,7 +17133,7 @@
       <c r="S299" s="2"/>
       <c r="T299" s="2"/>
     </row>
-    <row r="300" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -17172,7 +17153,7 @@
       <c r="S300" s="2"/>
       <c r="T300" s="2"/>
     </row>
-    <row r="301" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -17192,7 +17173,7 @@
       <c r="S301" s="2"/>
       <c r="T301" s="2"/>
     </row>
-    <row r="302" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -17212,7 +17193,7 @@
       <c r="S302" s="2"/>
       <c r="T302" s="2"/>
     </row>
-    <row r="303" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -17232,7 +17213,7 @@
       <c r="S303" s="2"/>
       <c r="T303" s="2"/>
     </row>
-    <row r="304" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -17252,7 +17233,7 @@
       <c r="S304" s="2"/>
       <c r="T304" s="2"/>
     </row>
-    <row r="305" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -17272,7 +17253,7 @@
       <c r="S305" s="2"/>
       <c r="T305" s="2"/>
     </row>
-    <row r="306" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -17292,7 +17273,7 @@
       <c r="S306" s="2"/>
       <c r="T306" s="2"/>
     </row>
-    <row r="307" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -17312,7 +17293,7 @@
       <c r="S307" s="2"/>
       <c r="T307" s="2"/>
     </row>
-    <row r="308" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -17332,7 +17313,7 @@
       <c r="S308" s="2"/>
       <c r="T308" s="2"/>
     </row>
-    <row r="309" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -17352,7 +17333,7 @@
       <c r="S309" s="2"/>
       <c r="T309" s="2"/>
     </row>
-    <row r="310" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -17372,7 +17353,7 @@
       <c r="S310" s="2"/>
       <c r="T310" s="2"/>
     </row>
-    <row r="311" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -17392,7 +17373,7 @@
       <c r="S311" s="2"/>
       <c r="T311" s="2"/>
     </row>
-    <row r="312" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -17412,7 +17393,7 @@
       <c r="S312" s="2"/>
       <c r="T312" s="2"/>
     </row>
-    <row r="313" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -17432,7 +17413,7 @@
       <c r="S313" s="2"/>
       <c r="T313" s="2"/>
     </row>
-    <row r="314" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -17452,7 +17433,7 @@
       <c r="S314" s="2"/>
       <c r="T314" s="2"/>
     </row>
-    <row r="315" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -17472,7 +17453,7 @@
       <c r="S315" s="2"/>
       <c r="T315" s="2"/>
     </row>
-    <row r="316" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -17492,7 +17473,7 @@
       <c r="S316" s="2"/>
       <c r="T316" s="2"/>
     </row>
-    <row r="317" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -17512,7 +17493,7 @@
       <c r="S317" s="2"/>
       <c r="T317" s="2"/>
     </row>
-    <row r="318" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -17532,7 +17513,7 @@
       <c r="S318" s="2"/>
       <c r="T318" s="2"/>
     </row>
-    <row r="319" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -17552,7 +17533,7 @@
       <c r="S319" s="2"/>
       <c r="T319" s="2"/>
     </row>
-    <row r="320" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -17572,7 +17553,7 @@
       <c r="S320" s="2"/>
       <c r="T320" s="2"/>
     </row>
-    <row r="321" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -17592,7 +17573,7 @@
       <c r="S321" s="2"/>
       <c r="T321" s="2"/>
     </row>
-    <row r="322" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -17612,7 +17593,7 @@
       <c r="S322" s="2"/>
       <c r="T322" s="2"/>
     </row>
-    <row r="323" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -17632,7 +17613,7 @@
       <c r="S323" s="2"/>
       <c r="T323" s="2"/>
     </row>
-    <row r="324" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -17652,7 +17633,7 @@
       <c r="S324" s="2"/>
       <c r="T324" s="2"/>
     </row>
-    <row r="325" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -17672,7 +17653,7 @@
       <c r="S325" s="2"/>
       <c r="T325" s="2"/>
     </row>
-    <row r="326" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -17692,7 +17673,7 @@
       <c r="S326" s="2"/>
       <c r="T326" s="2"/>
     </row>
-    <row r="327" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -17712,7 +17693,7 @@
       <c r="S327" s="2"/>
       <c r="T327" s="2"/>
     </row>
-    <row r="328" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -17732,7 +17713,7 @@
       <c r="S328" s="2"/>
       <c r="T328" s="2"/>
     </row>
-    <row r="329" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -17752,7 +17733,7 @@
       <c r="S329" s="2"/>
       <c r="T329" s="2"/>
     </row>
-    <row r="330" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -17772,7 +17753,7 @@
       <c r="S330" s="2"/>
       <c r="T330" s="2"/>
     </row>
-    <row r="331" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -17792,7 +17773,7 @@
       <c r="S331" s="2"/>
       <c r="T331" s="2"/>
     </row>
-    <row r="332" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -17812,7 +17793,7 @@
       <c r="S332" s="2"/>
       <c r="T332" s="2"/>
     </row>
-    <row r="333" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -17832,7 +17813,7 @@
       <c r="S333" s="2"/>
       <c r="T333" s="2"/>
     </row>
-    <row r="334" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -17852,7 +17833,7 @@
       <c r="S334" s="2"/>
       <c r="T334" s="2"/>
     </row>
-    <row r="335" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -17872,7 +17853,7 @@
       <c r="S335" s="2"/>
       <c r="T335" s="2"/>
     </row>
-    <row r="336" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -17892,7 +17873,7 @@
       <c r="S336" s="2"/>
       <c r="T336" s="2"/>
     </row>
-    <row r="337" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -17912,7 +17893,7 @@
       <c r="S337" s="2"/>
       <c r="T337" s="2"/>
     </row>
-    <row r="338" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -17932,7 +17913,7 @@
       <c r="S338" s="2"/>
       <c r="T338" s="2"/>
     </row>
-    <row r="339" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -17952,7 +17933,7 @@
       <c r="S339" s="2"/>
       <c r="T339" s="2"/>
     </row>
-    <row r="340" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -17972,7 +17953,7 @@
       <c r="S340" s="2"/>
       <c r="T340" s="2"/>
     </row>
-    <row r="341" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -17992,7 +17973,7 @@
       <c r="S341" s="2"/>
       <c r="T341" s="2"/>
     </row>
-    <row r="342" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -18012,7 +17993,7 @@
       <c r="S342" s="2"/>
       <c r="T342" s="2"/>
     </row>
-    <row r="343" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -18032,7 +18013,7 @@
       <c r="S343" s="2"/>
       <c r="T343" s="2"/>
     </row>
-    <row r="344" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -18052,7 +18033,7 @@
       <c r="S344" s="2"/>
       <c r="T344" s="2"/>
     </row>
-    <row r="345" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -18072,7 +18053,7 @@
       <c r="S345" s="2"/>
       <c r="T345" s="2"/>
     </row>
-    <row r="346" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -18092,7 +18073,7 @@
       <c r="S346" s="2"/>
       <c r="T346" s="2"/>
     </row>
-    <row r="347" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -18112,7 +18093,7 @@
       <c r="S347" s="2"/>
       <c r="T347" s="2"/>
     </row>
-    <row r="348" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -18132,7 +18113,7 @@
       <c r="S348" s="2"/>
       <c r="T348" s="2"/>
     </row>
-    <row r="349" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -18152,7 +18133,7 @@
       <c r="S349" s="2"/>
       <c r="T349" s="2"/>
     </row>
-    <row r="350" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -18172,7 +18153,7 @@
       <c r="S350" s="2"/>
       <c r="T350" s="2"/>
     </row>
-    <row r="351" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -18192,7 +18173,7 @@
       <c r="S351" s="2"/>
       <c r="T351" s="2"/>
     </row>
-    <row r="352" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -18212,7 +18193,7 @@
       <c r="S352" s="2"/>
       <c r="T352" s="2"/>
     </row>
-    <row r="353" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -18232,7 +18213,7 @@
       <c r="S353" s="2"/>
       <c r="T353" s="2"/>
     </row>
-    <row r="354" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -18252,7 +18233,7 @@
       <c r="S354" s="2"/>
       <c r="T354" s="2"/>
     </row>
-    <row r="355" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -18272,7 +18253,7 @@
       <c r="S355" s="2"/>
       <c r="T355" s="2"/>
     </row>
-    <row r="356" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -18292,7 +18273,7 @@
       <c r="S356" s="2"/>
       <c r="T356" s="2"/>
     </row>
-    <row r="357" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -18312,7 +18293,7 @@
       <c r="S357" s="2"/>
       <c r="T357" s="2"/>
     </row>
-    <row r="358" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -18332,7 +18313,7 @@
       <c r="S358" s="2"/>
       <c r="T358" s="2"/>
     </row>
-    <row r="359" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -18352,7 +18333,7 @@
       <c r="S359" s="2"/>
       <c r="T359" s="2"/>
     </row>
-    <row r="360" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -18372,7 +18353,7 @@
       <c r="S360" s="2"/>
       <c r="T360" s="2"/>
     </row>
-    <row r="361" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -18392,7 +18373,7 @@
       <c r="S361" s="2"/>
       <c r="T361" s="2"/>
     </row>
-    <row r="362" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -18412,7 +18393,7 @@
       <c r="S362" s="2"/>
       <c r="T362" s="2"/>
     </row>
-    <row r="363" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -18432,7 +18413,7 @@
       <c r="S363" s="2"/>
       <c r="T363" s="2"/>
     </row>
-    <row r="364" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -18452,7 +18433,7 @@
       <c r="S364" s="2"/>
       <c r="T364" s="2"/>
     </row>
-    <row r="365" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -18472,7 +18453,7 @@
       <c r="S365" s="2"/>
       <c r="T365" s="2"/>
     </row>
-    <row r="366" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -18492,7 +18473,7 @@
       <c r="S366" s="2"/>
       <c r="T366" s="2"/>
     </row>
-    <row r="367" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -18512,7 +18493,7 @@
       <c r="S367" s="2"/>
       <c r="T367" s="2"/>
     </row>
-    <row r="368" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -18532,7 +18513,7 @@
       <c r="S368" s="2"/>
       <c r="T368" s="2"/>
     </row>
-    <row r="369" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -18552,7 +18533,7 @@
       <c r="S369" s="2"/>
       <c r="T369" s="2"/>
     </row>
-    <row r="370" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -18572,7 +18553,7 @@
       <c r="S370" s="2"/>
       <c r="T370" s="2"/>
     </row>
-    <row r="371" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -18592,7 +18573,7 @@
       <c r="S371" s="2"/>
       <c r="T371" s="2"/>
     </row>
-    <row r="372" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -18612,7 +18593,7 @@
       <c r="S372" s="2"/>
       <c r="T372" s="2"/>
     </row>
-    <row r="373" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -18632,7 +18613,7 @@
       <c r="S373" s="2"/>
       <c r="T373" s="2"/>
     </row>
-    <row r="374" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -18652,7 +18633,7 @@
       <c r="S374" s="2"/>
       <c r="T374" s="2"/>
     </row>
-    <row r="375" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -18672,7 +18653,7 @@
       <c r="S375" s="2"/>
       <c r="T375" s="2"/>
     </row>
-    <row r="376" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -18692,7 +18673,7 @@
       <c r="S376" s="2"/>
       <c r="T376" s="2"/>
     </row>
-    <row r="377" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -18712,7 +18693,7 @@
       <c r="S377" s="2"/>
       <c r="T377" s="2"/>
     </row>
-    <row r="378" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -18732,7 +18713,7 @@
       <c r="S378" s="2"/>
       <c r="T378" s="2"/>
     </row>
-    <row r="379" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -18752,7 +18733,7 @@
       <c r="S379" s="2"/>
       <c r="T379" s="2"/>
     </row>
-    <row r="380" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -18772,7 +18753,7 @@
       <c r="S380" s="2"/>
       <c r="T380" s="2"/>
     </row>
-    <row r="381" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -18792,7 +18773,7 @@
       <c r="S381" s="2"/>
       <c r="T381" s="2"/>
     </row>
-    <row r="382" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -18812,7 +18793,7 @@
       <c r="S382" s="2"/>
       <c r="T382" s="2"/>
     </row>
-    <row r="383" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -18832,7 +18813,7 @@
       <c r="S383" s="2"/>
       <c r="T383" s="2"/>
     </row>
-    <row r="384" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -18852,7 +18833,7 @@
       <c r="S384" s="2"/>
       <c r="T384" s="2"/>
     </row>
-    <row r="385" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -18872,7 +18853,7 @@
       <c r="S385" s="2"/>
       <c r="T385" s="2"/>
     </row>
-    <row r="386" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -18892,7 +18873,7 @@
       <c r="S386" s="2"/>
       <c r="T386" s="2"/>
     </row>
-    <row r="387" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -18912,7 +18893,7 @@
       <c r="S387" s="2"/>
       <c r="T387" s="2"/>
     </row>
-    <row r="388" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -18932,7 +18913,7 @@
       <c r="S388" s="2"/>
       <c r="T388" s="2"/>
     </row>
-    <row r="389" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -18952,7 +18933,7 @@
       <c r="S389" s="2"/>
       <c r="T389" s="2"/>
     </row>
-    <row r="390" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -18972,7 +18953,7 @@
       <c r="S390" s="2"/>
       <c r="T390" s="2"/>
     </row>
-    <row r="391" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -18992,7 +18973,7 @@
       <c r="S391" s="2"/>
       <c r="T391" s="2"/>
     </row>
-    <row r="392" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -19012,7 +18993,7 @@
       <c r="S392" s="2"/>
       <c r="T392" s="2"/>
     </row>
-    <row r="393" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -19032,7 +19013,7 @@
       <c r="S393" s="2"/>
       <c r="T393" s="2"/>
     </row>
-    <row r="394" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -19052,7 +19033,7 @@
       <c r="S394" s="2"/>
       <c r="T394" s="2"/>
     </row>
-    <row r="395" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -19072,7 +19053,7 @@
       <c r="S395" s="2"/>
       <c r="T395" s="2"/>
     </row>
-    <row r="396" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -19092,7 +19073,7 @@
       <c r="S396" s="2"/>
       <c r="T396" s="2"/>
     </row>
-    <row r="397" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -19112,7 +19093,7 @@
       <c r="S397" s="2"/>
       <c r="T397" s="2"/>
     </row>
-    <row r="398" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -19132,7 +19113,7 @@
       <c r="S398" s="2"/>
       <c r="T398" s="2"/>
     </row>
-    <row r="399" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -19152,7 +19133,7 @@
       <c r="S399" s="2"/>
       <c r="T399" s="2"/>
     </row>
-    <row r="400" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -19172,7 +19153,7 @@
       <c r="S400" s="2"/>
       <c r="T400" s="2"/>
     </row>
-    <row r="401" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -19192,7 +19173,7 @@
       <c r="S401" s="2"/>
       <c r="T401" s="2"/>
     </row>
-    <row r="402" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -19212,7 +19193,7 @@
       <c r="S402" s="2"/>
       <c r="T402" s="2"/>
     </row>
-    <row r="403" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -19232,7 +19213,7 @@
       <c r="S403" s="2"/>
       <c r="T403" s="2"/>
     </row>
-    <row r="404" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -19252,7 +19233,7 @@
       <c r="S404" s="2"/>
       <c r="T404" s="2"/>
     </row>
-    <row r="405" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -19272,7 +19253,7 @@
       <c r="S405" s="2"/>
       <c r="T405" s="2"/>
     </row>
-    <row r="406" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -19292,7 +19273,7 @@
       <c r="S406" s="2"/>
       <c r="T406" s="2"/>
     </row>
-    <row r="407" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -19312,7 +19293,7 @@
       <c r="S407" s="2"/>
       <c r="T407" s="2"/>
     </row>
-    <row r="408" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -19332,7 +19313,7 @@
       <c r="S408" s="2"/>
       <c r="T408" s="2"/>
     </row>
-    <row r="409" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -19352,7 +19333,7 @@
       <c r="S409" s="2"/>
       <c r="T409" s="2"/>
     </row>
-    <row r="410" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -19372,7 +19353,7 @@
       <c r="S410" s="2"/>
       <c r="T410" s="2"/>
     </row>
-    <row r="411" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -19392,7 +19373,7 @@
       <c r="S411" s="2"/>
       <c r="T411" s="2"/>
     </row>
-    <row r="412" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -19412,7 +19393,7 @@
       <c r="S412" s="2"/>
       <c r="T412" s="2"/>
     </row>
-    <row r="413" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -19432,7 +19413,7 @@
       <c r="S413" s="2"/>
       <c r="T413" s="2"/>
     </row>
-    <row r="414" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -19452,7 +19433,7 @@
       <c r="S414" s="2"/>
       <c r="T414" s="2"/>
     </row>
-    <row r="415" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -19472,7 +19453,7 @@
       <c r="S415" s="2"/>
       <c r="T415" s="2"/>
     </row>
-    <row r="416" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -19492,7 +19473,7 @@
       <c r="S416" s="2"/>
       <c r="T416" s="2"/>
     </row>
-    <row r="417" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -19512,7 +19493,7 @@
       <c r="S417" s="2"/>
       <c r="T417" s="2"/>
     </row>
-    <row r="418" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -19532,7 +19513,7 @@
       <c r="S418" s="2"/>
       <c r="T418" s="2"/>
     </row>
-    <row r="419" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -19552,7 +19533,7 @@
       <c r="S419" s="2"/>
       <c r="T419" s="2"/>
     </row>
-    <row r="420" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -19572,7 +19553,7 @@
       <c r="S420" s="2"/>
       <c r="T420" s="2"/>
     </row>
-    <row r="421" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -19592,7 +19573,7 @@
       <c r="S421" s="2"/>
       <c r="T421" s="2"/>
     </row>
-    <row r="422" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -19612,7 +19593,7 @@
       <c r="S422" s="2"/>
       <c r="T422" s="2"/>
     </row>
-    <row r="423" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -19632,7 +19613,7 @@
       <c r="S423" s="2"/>
       <c r="T423" s="2"/>
     </row>
-    <row r="424" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -19652,7 +19633,7 @@
       <c r="S424" s="2"/>
       <c r="T424" s="2"/>
     </row>
-    <row r="425" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -19672,7 +19653,7 @@
       <c r="S425" s="2"/>
       <c r="T425" s="2"/>
     </row>
-    <row r="426" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -19692,7 +19673,7 @@
       <c r="S426" s="2"/>
       <c r="T426" s="2"/>
     </row>
-    <row r="427" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -19712,7 +19693,7 @@
       <c r="S427" s="2"/>
       <c r="T427" s="2"/>
     </row>
-    <row r="428" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -19732,7 +19713,7 @@
       <c r="S428" s="2"/>
       <c r="T428" s="2"/>
     </row>
-    <row r="429" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -19752,7 +19733,7 @@
       <c r="S429" s="2"/>
       <c r="T429" s="2"/>
     </row>
-    <row r="430" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -19772,7 +19753,7 @@
       <c r="S430" s="2"/>
       <c r="T430" s="2"/>
     </row>
-    <row r="431" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -19792,7 +19773,7 @@
       <c r="S431" s="2"/>
       <c r="T431" s="2"/>
     </row>
-    <row r="432" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -19812,7 +19793,7 @@
       <c r="S432" s="2"/>
       <c r="T432" s="2"/>
     </row>
-    <row r="433" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -19832,7 +19813,7 @@
       <c r="S433" s="2"/>
       <c r="T433" s="2"/>
     </row>
-    <row r="434" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -19852,7 +19833,7 @@
       <c r="S434" s="2"/>
       <c r="T434" s="2"/>
     </row>
-    <row r="435" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -19872,7 +19853,7 @@
       <c r="S435" s="2"/>
       <c r="T435" s="2"/>
     </row>
-    <row r="436" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -19892,7 +19873,7 @@
       <c r="S436" s="2"/>
       <c r="T436" s="2"/>
     </row>
-    <row r="437" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -19912,7 +19893,7 @@
       <c r="S437" s="2"/>
       <c r="T437" s="2"/>
     </row>
-    <row r="438" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -19932,7 +19913,7 @@
       <c r="S438" s="2"/>
       <c r="T438" s="2"/>
     </row>
-    <row r="439" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -19952,7 +19933,7 @@
       <c r="S439" s="2"/>
       <c r="T439" s="2"/>
     </row>
-    <row r="440" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -19972,7 +19953,7 @@
       <c r="S440" s="2"/>
       <c r="T440" s="2"/>
     </row>
-    <row r="441" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -19992,7 +19973,7 @@
       <c r="S441" s="2"/>
       <c r="T441" s="2"/>
     </row>
-    <row r="442" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -20012,7 +19993,7 @@
       <c r="S442" s="2"/>
       <c r="T442" s="2"/>
     </row>
-    <row r="443" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -20032,7 +20013,7 @@
       <c r="S443" s="2"/>
       <c r="T443" s="2"/>
     </row>
-    <row r="444" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -20052,7 +20033,7 @@
       <c r="S444" s="2"/>
       <c r="T444" s="2"/>
     </row>
-    <row r="445" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -20072,7 +20053,7 @@
       <c r="S445" s="2"/>
       <c r="T445" s="2"/>
     </row>
-    <row r="446" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -20092,7 +20073,7 @@
       <c r="S446" s="2"/>
       <c r="T446" s="2"/>
     </row>
-    <row r="447" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -20112,7 +20093,7 @@
       <c r="S447" s="2"/>
       <c r="T447" s="2"/>
     </row>
-    <row r="448" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -20132,7 +20113,7 @@
       <c r="S448" s="2"/>
       <c r="T448" s="2"/>
     </row>
-    <row r="449" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -20152,7 +20133,7 @@
       <c r="S449" s="2"/>
       <c r="T449" s="2"/>
     </row>
-    <row r="450" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -20172,7 +20153,7 @@
       <c r="S450" s="2"/>
       <c r="T450" s="2"/>
     </row>
-    <row r="451" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -20192,7 +20173,7 @@
       <c r="S451" s="2"/>
       <c r="T451" s="2"/>
     </row>
-    <row r="452" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -20212,7 +20193,7 @@
       <c r="S452" s="2"/>
       <c r="T452" s="2"/>
     </row>
-    <row r="453" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -20232,7 +20213,7 @@
       <c r="S453" s="2"/>
       <c r="T453" s="2"/>
     </row>
-    <row r="454" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -20252,7 +20233,7 @@
       <c r="S454" s="2"/>
       <c r="T454" s="2"/>
     </row>
-    <row r="455" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -20272,7 +20253,7 @@
       <c r="S455" s="2"/>
       <c r="T455" s="2"/>
     </row>
-    <row r="456" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -20292,7 +20273,7 @@
       <c r="S456" s="2"/>
       <c r="T456" s="2"/>
     </row>
-    <row r="457" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -20312,7 +20293,7 @@
       <c r="S457" s="2"/>
       <c r="T457" s="2"/>
     </row>
-    <row r="458" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -20332,7 +20313,7 @@
       <c r="S458" s="2"/>
       <c r="T458" s="2"/>
     </row>
-    <row r="459" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -20352,7 +20333,7 @@
       <c r="S459" s="2"/>
       <c r="T459" s="2"/>
     </row>
-    <row r="460" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -20372,7 +20353,7 @@
       <c r="S460" s="2"/>
       <c r="T460" s="2"/>
     </row>
-    <row r="461" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -20392,7 +20373,7 @@
       <c r="S461" s="2"/>
       <c r="T461" s="2"/>
     </row>
-    <row r="462" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -20412,7 +20393,7 @@
       <c r="S462" s="2"/>
       <c r="T462" s="2"/>
     </row>
-    <row r="463" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -20432,7 +20413,7 @@
       <c r="S463" s="2"/>
       <c r="T463" s="2"/>
     </row>
-    <row r="464" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -20452,7 +20433,7 @@
       <c r="S464" s="2"/>
       <c r="T464" s="2"/>
     </row>
-    <row r="465" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -20472,7 +20453,7 @@
       <c r="S465" s="2"/>
       <c r="T465" s="2"/>
     </row>
-    <row r="466" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -20492,7 +20473,7 @@
       <c r="S466" s="2"/>
       <c r="T466" s="2"/>
     </row>
-    <row r="467" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -20512,7 +20493,7 @@
       <c r="S467" s="2"/>
       <c r="T467" s="2"/>
     </row>
-    <row r="468" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -20532,7 +20513,7 @@
       <c r="S468" s="2"/>
       <c r="T468" s="2"/>
     </row>
-    <row r="469" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -20554,17 +20535,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C1:J2"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C26:D26"/>
@@ -20580,11 +20550,22 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="D4:I5"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G27:G28 G12:G14 G16:G17 G20:G22 G24:G25 I9 I15 G30 G18:G19" unlockedFormula="1"/>
+    <ignoredError sqref="G27:G28 G12:G14 G16:G17 G20 G24:G25 I9 I15 G30 G18:G19 G22" unlockedFormula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -20600,7 +20581,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20611,82 +20592,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.3984375" customWidth="1"/>
+    <col min="9" max="9" width="22.09765625" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" customWidth="1"/>
+    <col min="11" max="11" width="16.8984375" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="14" width="12.375" customWidth="1"/>
+    <col min="13" max="14" width="12.3984375" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="14.625" customWidth="1"/>
-    <col min="17" max="17" width="21.875" customWidth="1"/>
-    <col min="18" max="18" width="20.625" customWidth="1"/>
-    <col min="19" max="19" width="19.375" customWidth="1"/>
-    <col min="20" max="20" width="25.125" customWidth="1"/>
-    <col min="21" max="21" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="14.59765625" customWidth="1"/>
+    <col min="17" max="17" width="21.8984375" customWidth="1"/>
+    <col min="18" max="18" width="20.59765625" customWidth="1"/>
+    <col min="19" max="19" width="19.3984375" customWidth="1"/>
+    <col min="20" max="20" width="25.09765625" customWidth="1"/>
+    <col min="21" max="21" width="15.8984375" customWidth="1"/>
     <col min="22" max="22" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.375" customWidth="1"/>
-    <col min="25" max="25" width="16.875" customWidth="1"/>
-    <col min="26" max="26" width="18.375" customWidth="1"/>
-    <col min="27" max="27" width="18.625" customWidth="1"/>
+    <col min="23" max="23" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.3984375" customWidth="1"/>
+    <col min="25" max="25" width="16.8984375" customWidth="1"/>
+    <col min="26" max="26" width="18.3984375" customWidth="1"/>
+    <col min="27" max="27" width="18.59765625" customWidth="1"/>
     <col min="28" max="28" width="14.5" customWidth="1"/>
-    <col min="29" max="29" width="12.375" customWidth="1"/>
-    <col min="30" max="47" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="29.375" customWidth="1"/>
-    <col min="49" max="67" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="29.375" customWidth="1"/>
-    <col min="69" max="87" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.3984375" customWidth="1"/>
+    <col min="30" max="47" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="29.3984375" customWidth="1"/>
+    <col min="49" max="67" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="29.3984375" customWidth="1"/>
+    <col min="69" max="87" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="30.59765625" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="22.5" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="27" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="151" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="154" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+    </row>
+    <row r="3" spans="2:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-    </row>
-    <row r="3" spans="2:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="C4" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="D4" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="152" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="154"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="155" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="157"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="85">
         <v>1</v>
@@ -20694,17 +20675,17 @@
       <c r="D5" s="81">
         <v>0</v>
       </c>
-      <c r="F5" s="155"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="157"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F5" s="158"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="160"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="85">
         <v>1</v>
@@ -20712,17 +20693,17 @@
       <c r="D6" s="81">
         <v>0</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="157"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="158"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="160"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="85">
         <v>1</v>
@@ -20730,17 +20711,17 @@
       <c r="D7" s="81">
         <v>0</v>
       </c>
-      <c r="F7" s="155"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="157"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="158"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="160"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="85">
         <v>1</v>
@@ -20748,17 +20729,17 @@
       <c r="D8" s="81">
         <v>0</v>
       </c>
-      <c r="F8" s="158"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159"/>
-      <c r="L8" s="160"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="161"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="163"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="86">
         <v>1</v>
@@ -20767,10 +20748,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="80" t="str">
         <f>B5</f>
@@ -20793,7 +20774,7 @@
         <v>Brayan Stiven Epalza Guerrero</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="110" t="str">
         <f>Planificación!C9</f>
         <v>FASE  DE ANALISIS</v>
@@ -20819,7 +20800,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="111" t="str">
         <f>Planificación!C11</f>
         <v>Requerimientos</v>
@@ -20840,7 +20821,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="111" t="str">
         <f>Planificación!C12</f>
         <v>Mapa de Procesos</v>
@@ -20861,7 +20842,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="111" t="str">
         <f>Planificación!C13</f>
         <v>Calidad Software</v>
@@ -20882,7 +20863,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="111" t="str">
         <f>Planificación!C14</f>
         <v>Diagrama Gantt/ costos / Recursos</v>
@@ -20903,7 +20884,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="110" t="str">
         <f>Planificación!C15</f>
         <v>FASE DE DISEÑO</v>
@@ -20914,7 +20895,7 @@
       <c r="F17" s="102"/>
       <c r="G17" s="112"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="111" t="str">
         <f>Planificación!C16</f>
         <v>Casos de Uso</v>
@@ -20936,7 +20917,7 @@
       </c>
       <c r="M18" s="103"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="111" t="str">
         <f>Planificación!C17</f>
         <v>Diagrama de Clases</v>
@@ -20947,7 +20928,7 @@
       <c r="F19" s="102"/>
       <c r="G19" s="112"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="111" t="str">
         <f>Planificación!C18</f>
         <v>Diagramas Distribución</v>
@@ -20958,7 +20939,7 @@
       <c r="F20" s="102"/>
       <c r="G20" s="112"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="111" t="str">
         <f>Planificación!C18</f>
         <v>Diagramas Distribución</v>
@@ -20969,7 +20950,7 @@
       <c r="F21" s="102"/>
       <c r="G21" s="112"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="111" t="str">
         <f>Planificación!C19</f>
         <v>Diagrama Relacional</v>
@@ -20980,7 +20961,7 @@
       <c r="F22" s="102"/>
       <c r="G22" s="112"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="111" t="str">
         <f>Planificación!C20</f>
         <v>Diccionario de Datos</v>
@@ -20991,7 +20972,7 @@
       <c r="F23" s="102"/>
       <c r="G23" s="112"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="111" t="str">
         <f>Planificación!C21</f>
         <v>Mockup del sistema</v>
@@ -21002,7 +20983,7 @@
       <c r="F24" s="102"/>
       <c r="G24" s="112"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="111" t="str">
         <f>Planificación!C22</f>
         <v>Arquitectura del sistema</v>
@@ -21013,7 +20994,7 @@
       <c r="F25" s="102"/>
       <c r="G25" s="112"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="110" t="str">
         <f>Planificación!C23</f>
         <v>FASE DESARROLLO</v>
@@ -21024,7 +21005,7 @@
       <c r="F26" s="102"/>
       <c r="G26" s="112"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="111" t="str">
         <f>Planificación!C24</f>
         <v>Desarrollo de interfaces</v>
@@ -21035,7 +21016,7 @@
       <c r="F27" s="102"/>
       <c r="G27" s="112"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="111" t="str">
         <f>Planificación!C25</f>
         <v>Desarrollo del sistema</v>
@@ -21046,7 +21027,7 @@
       <c r="F28" s="102"/>
       <c r="G28" s="112"/>
     </row>
-    <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="110" t="str">
         <f>Planificación!C26</f>
         <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
@@ -21057,7 +21038,7 @@
       <c r="F29" s="102"/>
       <c r="G29" s="112"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="111" t="str">
         <f>Planificación!C27</f>
         <v>Pruebas del sistema</v>
@@ -21068,7 +21049,7 @@
       <c r="F30" s="102"/>
       <c r="G30" s="112"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="101" t="str">
         <f>Planificación!C28</f>
         <v>Documentación / Manuales</v>
@@ -21079,7 +21060,7 @@
       <c r="F31" s="108"/>
       <c r="G31" s="113"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" s="90"/>
       <c r="D34" s="90"/>
       <c r="E34" s="90"/>
@@ -21101,35 +21082,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" customWidth="1"/>
+    <col min="12" max="12" width="13.09765625" customWidth="1"/>
+    <col min="13" max="13" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L2" s="181" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="177">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L2" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="167">
         <v>0</v>
       </c>
-      <c r="N2" s="178"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L3" s="181"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="180"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N2" s="168"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L3" s="171"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="170"/>
+    </row>
+    <row r="4" spans="2:15" ht="16.2" x14ac:dyDescent="0.35">
       <c r="C4" s="47"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -21141,35 +21122,35 @@
       <c r="K4" s="46"/>
       <c r="L4" s="46"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="161" t="s">
+      <c r="D5" s="185"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="174" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="175"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="182" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="182" t="s">
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="164" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="165"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="172" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="172" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="44" t="s">
         <v>7</v>
       </c>
@@ -21180,10 +21161,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="49" t="s">
         <v>11</v>
@@ -21192,24 +21173,24 @@
         <v>12</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
+        <v>52</v>
+      </c>
+      <c r="M6" s="173"/>
+      <c r="N6" s="173"/>
       <c r="O6" s="45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="92" t="s">
         <v>8</v>
       </c>
@@ -21236,25 +21217,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="93" t="str">
         <f>Planificación!C9</f>
         <v>FASE  DE ANALISIS</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="65">
         <v>0</v>
       </c>
-      <c r="F8" s="170"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
       <c r="I8" s="122">
         <f>SUM(I9:I12)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="166"/>
-      <c r="K8" s="167"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="177"/>
       <c r="L8" s="66">
         <f>SUM(L9:L12)</f>
         <v>0</v>
@@ -21266,7 +21247,7 @@
       <c r="N8" s="71"/>
       <c r="O8" s="75"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="94" t="str">
         <f>Planificación!C11</f>
         <v>Requerimientos</v>
@@ -21307,7 +21288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="94" t="str">
         <f>Planificación!C12</f>
         <v>Mapa de Procesos</v>
@@ -21345,7 +21326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="94" t="str">
         <f>Planificación!C13</f>
         <v>Calidad Software</v>
@@ -21379,7 +21360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B12" s="94" t="str">
         <f>Planificación!C14</f>
         <v>Diagrama Gantt/ costos / Recursos</v>
@@ -21413,26 +21394,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="93" t="str">
         <f>Planificación!C15</f>
         <v>FASE DE DISEÑO</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="165"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="65">
         <f>SUM(E14:E21)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="172"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
       <c r="I13" s="122">
         <f>SUM(I14:I21)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="168"/>
-      <c r="K13" s="169"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="179"/>
       <c r="L13" s="65">
         <f>SUM(L14:L21)</f>
         <v>0</v>
@@ -21447,7 +21428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="94" t="str">
         <f>Planificación!C16</f>
         <v>Casos de Uso</v>
@@ -21481,7 +21462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="94" t="str">
         <f>Planificación!C17</f>
         <v>Diagrama de Clases</v>
@@ -21515,7 +21496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="94" t="str">
         <f>Planificación!C18</f>
         <v>Diagramas Distribución</v>
@@ -21549,7 +21530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="94" t="str">
         <f>Planificación!C18</f>
         <v>Diagramas Distribución</v>
@@ -21583,7 +21564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="94" t="str">
         <f>Planificación!C19</f>
         <v>Diagrama Relacional</v>
@@ -21617,7 +21598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="94" t="str">
         <f>Planificación!C20</f>
         <v>Diccionario de Datos</v>
@@ -21651,7 +21632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="94" t="str">
         <f>Planificación!C21</f>
         <v>Mockup del sistema</v>
@@ -21685,7 +21666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="94" t="str">
         <f>Planificación!C22</f>
         <v>Arquitectura del sistema</v>
@@ -21719,26 +21700,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="93" t="str">
         <f>Planificación!C23</f>
         <v>FASE DESARROLLO</v>
       </c>
-      <c r="C22" s="164"/>
-      <c r="D22" s="165"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="175"/>
       <c r="E22" s="65">
         <f>SUM(E23:E24)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="172"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
       <c r="I22" s="122">
         <f>SUM(I23:I24)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="168"/>
-      <c r="K22" s="169"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="179"/>
       <c r="L22" s="65">
         <f>SUM(L23:L24)</f>
         <v>0</v>
@@ -21753,7 +21734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="94" t="str">
         <f>Planificación!C24</f>
         <v>Desarrollo de interfaces</v>
@@ -21787,7 +21768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="94" t="str">
         <f>Planificación!C25</f>
         <v>Desarrollo del sistema</v>
@@ -21821,26 +21802,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="93" t="str">
         <f>Planificación!C26</f>
         <v>FASE DE PRUEBAS / INTEGRACIÓN</v>
       </c>
-      <c r="C25" s="164"/>
-      <c r="D25" s="165"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
       <c r="E25" s="65">
         <f>SUM(E26:E27)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="172"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
       <c r="I25" s="122">
         <f>SUM(I26:I27)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="168"/>
-      <c r="K25" s="169"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="179"/>
       <c r="L25" s="65">
         <f>SUM(L26:L27)</f>
         <v>0</v>
@@ -21855,7 +21836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="94" t="str">
         <f>Planificación!C27</f>
         <v>Pruebas del sistema</v>
@@ -21889,7 +21870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="94" t="str">
         <f>Planificación!C28</f>
         <v>Documentación / Manuales</v>
@@ -21923,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="95"/>
       <c r="C28" s="58"/>
       <c r="D28" s="59"/>
@@ -21942,7 +21923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="91" t="s">
         <v>3</v>
       </c>
@@ -21978,7 +21959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="40"/>
       <c r="D30" s="41"/>
@@ -21996,11 +21977,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J13:K13"/>
@@ -22010,11 +21991,11 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <conditionalFormatting sqref="O29:O30">
     <cfRule type="colorScale" priority="2">
@@ -22052,87 +22033,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A24:AE47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="21.125" customWidth="1"/>
-    <col min="12" max="12" width="24.125" customWidth="1"/>
-    <col min="13" max="13" width="23.625" customWidth="1"/>
-    <col min="14" max="15" width="21.125" customWidth="1"/>
-    <col min="16" max="16" width="30.875" customWidth="1"/>
-    <col min="17" max="17" width="30.375" customWidth="1"/>
-    <col min="18" max="18" width="25.75" customWidth="1"/>
-    <col min="19" max="19" width="25.25" customWidth="1"/>
-    <col min="20" max="20" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="11" max="11" width="21.09765625" customWidth="1"/>
+    <col min="12" max="12" width="24.09765625" customWidth="1"/>
+    <col min="13" max="13" width="23.59765625" customWidth="1"/>
+    <col min="14" max="15" width="21.09765625" customWidth="1"/>
+    <col min="16" max="16" width="30.8984375" customWidth="1"/>
+    <col min="17" max="17" width="30.3984375" customWidth="1"/>
+    <col min="18" max="18" width="25.69921875" customWidth="1"/>
+    <col min="19" max="19" width="25.19921875" customWidth="1"/>
+    <col min="20" max="20" width="19.69921875" customWidth="1"/>
     <col min="21" max="21" width="23.5" customWidth="1"/>
     <col min="22" max="25" width="24.5" customWidth="1"/>
-    <col min="26" max="26" width="31.125" customWidth="1"/>
+    <col min="26" max="26" width="31.09765625" customWidth="1"/>
     <col min="27" max="27" width="23.5" customWidth="1"/>
     <col min="28" max="31" width="24.5" customWidth="1"/>
-    <col min="32" max="32" width="28.625" customWidth="1"/>
-    <col min="33" max="33" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="29.625" customWidth="1"/>
-    <col min="37" max="37" width="28.625" customWidth="1"/>
-    <col min="38" max="41" width="29.625" customWidth="1"/>
-    <col min="42" max="42" width="30.125" customWidth="1"/>
-    <col min="43" max="46" width="31.125" customWidth="1"/>
-    <col min="47" max="51" width="19.75" customWidth="1"/>
-    <col min="52" max="52" width="28.625" customWidth="1"/>
-    <col min="53" max="56" width="29.625" customWidth="1"/>
-    <col min="57" max="57" width="28.625" customWidth="1"/>
-    <col min="58" max="58" width="29.625" customWidth="1"/>
-    <col min="59" max="61" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.59765625" customWidth="1"/>
+    <col min="33" max="33" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="29.59765625" customWidth="1"/>
+    <col min="37" max="37" width="28.59765625" customWidth="1"/>
+    <col min="38" max="41" width="29.59765625" customWidth="1"/>
+    <col min="42" max="42" width="30.09765625" customWidth="1"/>
+    <col min="43" max="46" width="31.09765625" customWidth="1"/>
+    <col min="47" max="51" width="19.69921875" customWidth="1"/>
+    <col min="52" max="52" width="28.59765625" customWidth="1"/>
+    <col min="53" max="56" width="29.59765625" customWidth="1"/>
+    <col min="57" max="57" width="28.59765625" customWidth="1"/>
+    <col min="58" max="58" width="29.59765625" customWidth="1"/>
+    <col min="59" max="61" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="34" bestFit="1" customWidth="1"/>
     <col min="63" max="64" width="35" bestFit="1" customWidth="1"/>
     <col min="65" max="66" width="35" customWidth="1"/>
-    <col min="67" max="69" width="19.75" customWidth="1"/>
-    <col min="70" max="70" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.75" customWidth="1"/>
-    <col min="72" max="72" width="28.625" customWidth="1"/>
-    <col min="73" max="73" width="29.625" customWidth="1"/>
-    <col min="74" max="76" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="28.625" customWidth="1"/>
-    <col min="78" max="78" width="29.625" customWidth="1"/>
-    <col min="79" max="81" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="67" max="69" width="19.69921875" customWidth="1"/>
+    <col min="70" max="70" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.69921875" customWidth="1"/>
+    <col min="72" max="72" width="28.59765625" customWidth="1"/>
+    <col min="73" max="73" width="29.59765625" customWidth="1"/>
+    <col min="74" max="76" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="28.59765625" customWidth="1"/>
+    <col min="78" max="78" width="29.59765625" customWidth="1"/>
+    <col min="79" max="81" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="26.5" customWidth="1"/>
     <col min="83" max="86" width="27.5" customWidth="1"/>
-    <col min="87" max="89" width="19.75" customWidth="1"/>
-    <col min="90" max="91" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="93" max="96" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="28.625" customWidth="1"/>
-    <col min="98" max="101" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="103" max="106" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="108" max="111" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="112" max="113" width="19.75" customWidth="1"/>
-    <col min="114" max="116" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="118" max="121" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="123" max="126" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="128" max="131" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="133" max="136" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="87" max="89" width="19.69921875" customWidth="1"/>
+    <col min="90" max="91" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="93" max="96" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="28.59765625" customWidth="1"/>
+    <col min="98" max="101" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="103" max="106" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="30.69921875" bestFit="1" customWidth="1"/>
+    <col min="108" max="111" width="31.8984375" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="19.69921875" customWidth="1"/>
+    <col min="114" max="116" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="118" max="121" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="123" max="126" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="128" max="131" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="133" max="136" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="23.5" bestFit="1" customWidth="1"/>
     <col min="138" max="141" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B24" s="105"/>
       <c r="C24" s="103"/>
       <c r="Z24" s="103"/>
@@ -22142,29 +22123,29 @@
       <c r="AD24" s="103"/>
       <c r="AE24" s="103"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B25" s="105"/>
       <c r="C25" s="103"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B26" s="105"/>
       <c r="C26" s="103"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B27" s="105"/>
       <c r="C27" s="107"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="104" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="104" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>23</v>
@@ -22173,98 +22154,98 @@
         <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="131">
+        <v>0.8</v>
+      </c>
+      <c r="C40" s="131">
+        <v>0.2</v>
+      </c>
+      <c r="D40" s="131">
+        <v>0.2</v>
+      </c>
+      <c r="E40" s="131">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="184">
+      <c r="B41" s="131">
         <v>0.8</v>
       </c>
-      <c r="C40" s="184">
+      <c r="C41" s="131">
         <v>0.2</v>
       </c>
-      <c r="D40" s="184">
+      <c r="D41" s="131">
         <v>0.2</v>
       </c>
-      <c r="E40" s="184">
+      <c r="E41" s="131">
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="105" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="131">
+        <v>0.8</v>
+      </c>
+      <c r="C42" s="131">
+        <v>0.2</v>
+      </c>
+      <c r="D42" s="131">
+        <v>0.2</v>
+      </c>
+      <c r="E42" s="131">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="131">
+        <v>0.8</v>
+      </c>
+      <c r="C43" s="131">
+        <v>0.2</v>
+      </c>
+      <c r="D43" s="131">
+        <v>0.2</v>
+      </c>
+      <c r="E43" s="131">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="184">
+      <c r="B44" s="131">
         <v>0.8</v>
       </c>
-      <c r="C41" s="184">
+      <c r="C44" s="131">
         <v>0.2</v>
       </c>
-      <c r="D41" s="184">
+      <c r="D44" s="131">
         <v>0.2</v>
       </c>
-      <c r="E41" s="184">
+      <c r="E44" s="131">
         <v>1.2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="184">
-        <v>0.8</v>
-      </c>
-      <c r="C42" s="184">
-        <v>0.2</v>
-      </c>
-      <c r="D42" s="184">
-        <v>0.2</v>
-      </c>
-      <c r="E42" s="184">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="184">
-        <v>0.8</v>
-      </c>
-      <c r="C43" s="184">
-        <v>0.2</v>
-      </c>
-      <c r="D43" s="184">
-        <v>0.2</v>
-      </c>
-      <c r="E43" s="184">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="184">
-        <v>0.8</v>
-      </c>
-      <c r="C44" s="184">
-        <v>0.2</v>
-      </c>
-      <c r="D44" s="184">
-        <v>0.2</v>
-      </c>
-      <c r="E44" s="184">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F45" s="107"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="105"/>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
@@ -22272,7 +22253,7 @@
       <c r="E46" s="107"/>
       <c r="F46" s="107"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="105"/>
     </row>
   </sheetData>
